--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -83,6 +83,18 @@
     <t xml:space="preserve">Fertigstellung Use Cases</t>
   </si>
   <si>
+    <t xml:space="preserve">Teambesprechung Konzept und Skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umstellungsversuch h2 auf mysql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen von Milestones in GitLab</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -102,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung</t>
   </si>
   <si>
     <t xml:space="preserve">Tests</t>
@@ -347,14 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,7 +469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>43905</v>
       </c>
@@ -478,9 +483,70 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C11" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -515,10 +581,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -40,6 +40,9 @@
     </r>
   </si>
   <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
     <t>Primäre Tätigkeit</t>
   </si>
   <si>
@@ -49,42 +52,39 @@
     <t>LV-Einheit</t>
   </si>
   <si>
-    <t>Bezeichnung</t>
+    <t>Softwarekonzept</t>
+  </si>
+  <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abschlussbericht</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>Koordination und Projektmanagement</t>
   </si>
   <si>
     <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
-    <t>Softwarekonzept</t>
-  </si>
-  <si>
-    <t>Systemtest (fremdes System)</t>
-  </si>
-  <si>
-    <t>Abschlussbericht</t>
-  </si>
-  <si>
-    <t>Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t>Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t>Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t>Koordination und Projektmanagement</t>
-  </si>
-  <si>
     <t>Teilnahme am Proseminar</t>
   </si>
   <si>
@@ -116,6 +116,36 @@
   </si>
   <si>
     <t>Verwaltung von Meilensteinen und Issues in GitLab</t>
+  </si>
+  <si>
+    <t>Menüstruktur erstellt</t>
+  </si>
+  <si>
+    <t>Bluetooth Konfiguration</t>
+  </si>
+  <si>
+    <t>Raspberry einstellen und Installationen durchführen</t>
+  </si>
+  <si>
+    <t>TimeFlip-Client Kommunikation</t>
+  </si>
+  <si>
+    <t>Einarbeiten in REST-Api und erste Versuche ins System einzubinden</t>
+  </si>
+  <si>
+    <t>Bluetooth Funktionen in Client Programm einbinden</t>
+  </si>
+  <si>
+    <t>Bluetooth Daten auslesen und verarbeiten</t>
+  </si>
+  <si>
+    <t>Bluetooth Daten auslesen und Verarbeiten</t>
+  </si>
+  <si>
+    <t>Daten Auslesen und an Backend senden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teambesprechung </t>
   </si>
 </sst>
 </file>
@@ -139,11 +169,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
@@ -151,6 +176,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -194,10 +224,14 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -206,17 +240,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -225,11 +255,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,259 +493,402 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>43892.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>43899.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>43899.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>0.0208333333333333</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>43899.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>43901.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>0.0625</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>43902.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>43905.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>0.0729166666666667</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>43906.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>43907.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>43908.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>0.0104166666666667</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>43909.0</v>
       </c>
       <c r="B12" s="11">
         <v>0.041666666666666664</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>43913.0</v>
       </c>
       <c r="B13" s="11">
         <v>0.0625</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>43917.0</v>
       </c>
       <c r="B14" s="11">
         <v>0.0625</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>43919.0</v>
       </c>
       <c r="B15" s="11">
         <v>0.041666666666666664</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>43920.0</v>
       </c>
       <c r="B16" s="11">
         <v>0.010416666666666666</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13">
+        <v>43926.0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="13">
+        <v>43928.0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="13">
+        <v>43929.0</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="13">
+        <v>43930.0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13">
+        <v>43932.0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="13">
+        <v>43935.0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="13">
+        <v>43936.0</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="13">
+        <v>43937.0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13">
+        <v>43938.0</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="13">
+        <v>43940.0</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="13">
+        <v>43940.0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -1691,7 +1864,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C27">
       <formula1>'Tätigkeiten'!$B$2:$B$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -1719,99 +1892,99 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Bezeichnung</t>
   </si>
   <si>
     <r>
@@ -40,39 +43,36 @@
     </r>
   </si>
   <si>
-    <t>Bezeichnung</t>
+    <t>LV-Einheit</t>
+  </si>
+  <si>
+    <t>Softwarekonzept</t>
+  </si>
+  <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abschlussbericht</t>
   </si>
   <si>
     <t>Primäre Tätigkeit</t>
   </si>
   <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
     <t>Anmerkung</t>
   </si>
   <si>
-    <t>LV-Einheit</t>
-  </si>
-  <si>
-    <t>Softwarekonzept</t>
-  </si>
-  <si>
-    <t>Systemtest (fremdes System)</t>
-  </si>
-  <si>
-    <t>Abschlussbericht</t>
-  </si>
-  <si>
-    <t>Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t>Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t>Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t xml:space="preserve">Teambesprechung </t>
+  </si>
+  <si>
+    <t>Planung der weiteren Vorgehensweise</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Rest Api &amp; TImeFlip</t>
+  </si>
+  <si>
+    <t>Rest Api &amp; TimeFlip</t>
+  </si>
+  <si>
+    <t>Rest Api</t>
+  </si>
+  <si>
+    <t>Implementierung der Raspberry udn Raum Klassen (Controller, Services ...)</t>
   </si>
 </sst>
 </file>
@@ -164,13 +182,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="14.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
@@ -222,15 +240,15 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -490,17 +508,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -533,7 +551,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>17</v>
@@ -547,7 +565,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -575,7 +593,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
@@ -589,7 +607,7 @@
         <v>0.0625</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>21</v>
@@ -603,7 +621,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>21</v>
@@ -617,7 +635,7 @@
         <v>0.0729166666666667</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>22</v>
@@ -633,7 +651,7 @@
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -645,9 +663,9 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -673,7 +691,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
@@ -687,7 +705,7 @@
         <v>0.0625</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>18</v>
@@ -701,7 +719,7 @@
         <v>0.0625</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>27</v>
@@ -715,7 +733,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>27</v>
@@ -743,7 +761,7 @@
         <v>0.052083333333333336</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>29</v>
@@ -757,7 +775,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
@@ -771,7 +789,7 @@
         <v>0.125</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>31</v>
@@ -785,7 +803,7 @@
         <v>0.125</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>32</v>
@@ -799,7 +817,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>33</v>
@@ -813,9 +831,9 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -827,9 +845,9 @@
         <v>0.125</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -841,9 +859,9 @@
         <v>0.125</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -855,7 +873,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>37</v>
@@ -869,7 +887,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>37</v>
@@ -885,18 +903,122 @@
       <c r="C27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="13">
+        <v>43945.0</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="13">
+        <v>43948.0</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="13">
+        <v>43949.0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13">
+        <v>43950.0</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.0625</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="13">
+        <v>43951.0</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="13">
+        <v>43952.0</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="13">
+        <v>43953.0</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="13">
+        <v>43954.0</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -1862,9 +1984,11 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C35">
       <formula1>'Tätigkeiten'!$B$2:$B$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -1892,98 +2016,98 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>0.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>14.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>15.0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>16.0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -55,33 +55,33 @@
     <t>Abschlussbericht</t>
   </si>
   <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t>Koordination und Projektmanagement</t>
+  </si>
+  <si>
     <t>Primäre Tätigkeit</t>
   </si>
   <si>
-    <t>Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t>Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t>Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
     <t>Anmerkung</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t>Koordination und Projektmanagement</t>
-  </si>
-  <si>
     <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
@@ -163,7 +163,16 @@
     <t>Rest Api</t>
   </si>
   <si>
-    <t>Implementierung der Raspberry udn Raum Klassen (Controller, Services ...)</t>
+    <t>Implementierung der Raspberry und Raum Klassen (Controller, Services ...)</t>
+  </si>
+  <si>
+    <t>Client Anpassungen</t>
+  </si>
+  <si>
+    <t>Start und Endzeiten von History Einträgen berechnen</t>
+  </si>
+  <si>
+    <t>History Objekte in Datenbank einbringen</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -579,7 +588,7 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>19</v>
@@ -649,7 +658,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -663,7 +672,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -677,7 +686,7 @@
         <v>0.0104166666666667</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -691,7 +700,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
@@ -719,7 +728,7 @@
         <v>0.0625</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>27</v>
@@ -733,7 +742,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>27</v>
@@ -747,7 +756,7 @@
         <v>0.010416666666666666</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
@@ -761,7 +770,7 @@
         <v>0.052083333333333336</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>29</v>
@@ -775,7 +784,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
@@ -789,7 +798,7 @@
         <v>0.125</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>31</v>
@@ -803,7 +812,7 @@
         <v>0.125</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>32</v>
@@ -817,7 +826,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>33</v>
@@ -831,7 +840,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>34</v>
@@ -845,7 +854,7 @@
         <v>0.125</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>35</v>
@@ -859,7 +868,7 @@
         <v>0.125</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>36</v>
@@ -873,7 +882,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>37</v>
@@ -887,7 +896,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>37</v>
@@ -901,7 +910,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
@@ -915,9 +924,9 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -929,9 +938,9 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -943,9 +952,9 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -957,9 +966,9 @@
         <v>0.0625</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -971,9 +980,9 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -985,9 +994,9 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -999,7 +1008,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>43</v>
@@ -1013,19 +1022,110 @@
         <v>0.125</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="13">
+        <v>43962.0</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="13">
+        <v>43963.0</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="13">
+        <v>43964.0</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.0625</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="13">
+        <v>43965.0</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="13">
+        <v>43967.0</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="13">
+        <v>43968.0</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.0625</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="13">
+        <v>43968.0</v>
+      </c>
+      <c r="B42" s="11">
+        <v>0.0625</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -1988,7 +2088,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C42">
       <formula1>'Tätigkeiten'!$B$2:$B$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -2060,7 +2160,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -2068,7 +2168,7 @@
         <v>11.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -2076,7 +2176,7 @@
         <v>12.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -2084,7 +2184,7 @@
         <v>13.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -2092,7 +2192,7 @@
         <v>14.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2100,7 +2200,7 @@
         <v>15.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2108,7 +2208,7 @@
         <v>16.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -67,21 +67,21 @@
     <t>Implementierung</t>
   </si>
   <si>
+    <t>Primäre Tätigkeit</t>
+  </si>
+  <si>
     <t>Tests</t>
   </si>
   <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
     <t>Konfiguration und Deployment</t>
   </si>
   <si>
     <t>Koordination und Projektmanagement</t>
   </si>
   <si>
-    <t>Primäre Tätigkeit</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
     <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
@@ -173,6 +173,30 @@
   </si>
   <si>
     <t>History Objekte in Datenbank einbringen</t>
+  </si>
+  <si>
+    <t>Planung der nächsten Schritte</t>
+  </si>
+  <si>
+    <t>Installationsscript schreiben und testen</t>
+  </si>
+  <si>
+    <t>Client Tests</t>
+  </si>
+  <si>
+    <t>Versuch, mit Mockito client zu testen</t>
+  </si>
+  <si>
+    <t>Weiterer Versuch, mit Mockito client zu testen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>E-Mail Konfiguration</t>
+  </si>
+  <si>
+    <t>Allgemeine Anpassungen</t>
   </si>
 </sst>
 </file>
@@ -524,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -588,7 +612,7 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>19</v>
@@ -658,7 +682,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -686,7 +710,7 @@
         <v>0.0104166666666667</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -756,7 +780,7 @@
         <v>0.010416666666666666</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
@@ -910,7 +934,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
@@ -924,7 +948,7 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>39</v>
@@ -938,7 +962,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>40</v>
@@ -994,7 +1018,7 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
@@ -1117,31 +1141,221 @@
         <v>43968.0</v>
       </c>
       <c r="B42" s="11">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="13">
+        <v>43969.0</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.020833333333333332</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="13">
+        <v>43971.0</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="13">
+        <v>43972.0</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="13">
+        <v>43972.0</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="13">
+        <v>43974.0</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="13">
+        <v>43975.0</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="13">
+        <v>43975.0</v>
+      </c>
+      <c r="B49" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="13">
+        <v>43976.0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="13">
+        <v>43976.0</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="13">
+        <v>43977.0</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="13">
+        <v>43978.0</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="13">
+        <v>43978.0</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="13">
+        <v>43978.0</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="13">
+        <v>43979.0</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+    </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1"/>
@@ -2086,9 +2300,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C42">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C58">
       <formula1>'Tätigkeiten'!$B$2:$B$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -2192,7 +2408,7 @@
         <v>14.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2200,7 +2416,7 @@
         <v>15.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2208,7 +2424,7 @@
         <v>16.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Simon.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91C70B-41FB-420D-A1F4-88880B05CB5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Datenerfassung" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tätigkeiten" sheetId="2" r:id="rId5"/>
+    <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
+    <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -25,19 +34,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">Dauer 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri (Textkörper)"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="10.0"/>
       </rPr>
       <t>[hh:mm]</t>
     </r>
@@ -197,57 +206,87 @@
   </si>
   <si>
     <t>Allgemeine Anpassungen</t>
+  </si>
+  <si>
+    <t>Abnahmetest Team G2T3</t>
+  </si>
+  <si>
+    <t>Client Verbesserungen</t>
+  </si>
+  <si>
+    <t>Würfelseiten konfigurierbar machen</t>
+  </si>
+  <si>
+    <t>Versuch, mit Mockito client zu testen (leider ohne Erfolg)</t>
+  </si>
+  <si>
+    <t>Versuch, mit Mockito client zu testen (leider ohne Erfolg), allgemeine Anpassungen</t>
+  </si>
+  <si>
+    <t>Allgemeine Anpassungen und finaler Systemtest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="165" formatCode="H:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,79 +296,63 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -519,28 +542,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.67"/>
-    <col customWidth="1" min="2" max="2" width="9.67"/>
-    <col customWidth="1" min="3" max="3" width="34.56"/>
-    <col customWidth="1" min="4" max="4" width="52.33"/>
-    <col customWidth="1" min="5" max="6" width="10.44"/>
-    <col customWidth="1" min="7" max="26" width="8.56"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="4" max="4" width="77.796875" customWidth="1"/>
+    <col min="5" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,12 +601,12 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>43892.0</v>
+        <v>43892</v>
       </c>
       <c r="B2" s="7">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -590,12 +615,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="6">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="B3" s="7">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
@@ -604,12 +629,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="B4" s="7">
-        <v>0.0208333333333333</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -618,12 +643,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="6">
-        <v>43899.0</v>
+        <v>43899</v>
       </c>
       <c r="B5" s="7">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>4</v>
@@ -632,12 +657,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="6">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="B6" s="7">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
@@ -646,12 +671,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="6">
-        <v>43902.0</v>
+        <v>43902</v>
       </c>
       <c r="B7" s="7">
-        <v>0.0833333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
@@ -660,12 +685,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>43905.0</v>
+        <v>43905</v>
       </c>
       <c r="B8" s="7">
-        <v>0.0729166666666667</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
@@ -674,12 +699,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>43906.0</v>
+        <v>43906</v>
       </c>
       <c r="B9" s="7">
-        <v>0.0416666666666667</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -688,12 +713,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="B10" s="7">
-        <v>0.0416666666666667</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>11</v>
@@ -702,12 +727,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>43908.0</v>
+        <v>43908</v>
       </c>
       <c r="B11" s="7">
-        <v>0.0104166666666667</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
@@ -716,12 +741,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>43909.0</v>
+        <v>43909</v>
       </c>
       <c r="B12" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
@@ -730,12 +755,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="13">
-        <v>43913.0</v>
+        <v>43913</v>
       </c>
       <c r="B13" s="11">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>4</v>
@@ -744,12 +769,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="13">
-        <v>43917.0</v>
+        <v>43917</v>
       </c>
       <c r="B14" s="11">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
@@ -758,12 +783,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="13">
-        <v>43919.0</v>
+        <v>43919</v>
       </c>
       <c r="B15" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
@@ -772,12 +797,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="13">
-        <v>43920.0</v>
+        <v>43920</v>
       </c>
       <c r="B16" s="11">
-        <v>0.010416666666666666</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>16</v>
@@ -786,12 +811,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="13">
-        <v>43926.0</v>
+        <v>43926</v>
       </c>
       <c r="B17" s="11">
-        <v>0.052083333333333336</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>11</v>
@@ -800,12 +825,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="13">
-        <v>43928.0</v>
+        <v>43928</v>
       </c>
       <c r="B18" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>11</v>
@@ -814,9 +839,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="13">
-        <v>43929.0</v>
+        <v>43929</v>
       </c>
       <c r="B19" s="11">
         <v>0.125</v>
@@ -828,9 +853,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="13">
-        <v>43930.0</v>
+        <v>43930</v>
       </c>
       <c r="B20" s="11">
         <v>0.125</v>
@@ -842,9 +867,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="13">
-        <v>43932.0</v>
+        <v>43932</v>
       </c>
       <c r="B21" s="11">
         <v>0.10416666666666667</v>
@@ -856,12 +881,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="13">
-        <v>43935.0</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>11</v>
@@ -870,9 +895,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="13">
-        <v>43936.0</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="11">
         <v>0.125</v>
@@ -884,9 +909,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="13">
-        <v>43937.0</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="11">
         <v>0.125</v>
@@ -898,12 +923,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="13">
-        <v>43938.0</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>11</v>
@@ -912,9 +937,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="13">
-        <v>43940.0</v>
+        <v>43940</v>
       </c>
       <c r="B26" s="11">
         <v>0.125</v>
@@ -926,12 +951,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="13">
-        <v>43940.0</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>16</v>
@@ -940,12 +965,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="13">
-        <v>43945.0</v>
+        <v>43945</v>
       </c>
       <c r="B28" s="11">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>16</v>
@@ -954,12 +979,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="13">
-        <v>43948.0</v>
+        <v>43948</v>
       </c>
       <c r="B29" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>16</v>
@@ -968,12 +993,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="13">
-        <v>43949.0</v>
+        <v>43949</v>
       </c>
       <c r="B30" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>11</v>
@@ -982,12 +1007,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="13">
-        <v>43950.0</v>
+        <v>43950</v>
       </c>
       <c r="B31" s="11">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>11</v>
@@ -996,9 +1021,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="13">
-        <v>43951.0</v>
+        <v>43951</v>
       </c>
       <c r="B32" s="11">
         <v>0.10416666666666667</v>
@@ -1010,12 +1035,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="13">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="B33" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>16</v>
@@ -1024,9 +1049,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="13">
-        <v>43953.0</v>
+        <v>43953</v>
       </c>
       <c r="B34" s="11">
         <v>0.16666666666666666</v>
@@ -1038,9 +1063,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="13">
-        <v>43954.0</v>
+        <v>43954</v>
       </c>
       <c r="B35" s="11">
         <v>0.125</v>
@@ -1052,9 +1077,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="13">
-        <v>43962.0</v>
+        <v>43962</v>
       </c>
       <c r="B36" s="11">
         <v>0.16666666666666666</v>
@@ -1066,12 +1091,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="13">
-        <v>43963.0</v>
+        <v>43963</v>
       </c>
       <c r="B37" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>11</v>
@@ -1080,12 +1105,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="13">
-        <v>43964.0</v>
+        <v>43964</v>
       </c>
       <c r="B38" s="11">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>11</v>
@@ -1094,12 +1119,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="13">
-        <v>43965.0</v>
+        <v>43965</v>
       </c>
       <c r="B39" s="11">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>11</v>
@@ -1108,9 +1133,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="13">
-        <v>43967.0</v>
+        <v>43967</v>
       </c>
       <c r="B40" s="11">
         <v>0.16666666666666666</v>
@@ -1122,12 +1147,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="13">
-        <v>43968.0</v>
+        <v>43968</v>
       </c>
       <c r="B41" s="11">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>11</v>
@@ -1136,12 +1161,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="13">
-        <v>43968.0</v>
+        <v>43968</v>
       </c>
       <c r="B42" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>16</v>
@@ -1150,12 +1175,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="13">
-        <v>43969.0</v>
+        <v>43969</v>
       </c>
       <c r="B43" s="11">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>16</v>
@@ -1164,12 +1189,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="13">
-        <v>43971.0</v>
+        <v>43971</v>
       </c>
       <c r="B44" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>11</v>
@@ -1178,12 +1203,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="13">
-        <v>43972.0</v>
+        <v>43972</v>
       </c>
       <c r="B45" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>13</v>
@@ -1192,9 +1217,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="13">
-        <v>43972.0</v>
+        <v>43972</v>
       </c>
       <c r="B46" s="11">
         <v>0.125</v>
@@ -1206,9 +1231,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="13">
-        <v>43974.0</v>
+        <v>43974</v>
       </c>
       <c r="B47" s="11">
         <v>0.125</v>
@@ -1220,9 +1245,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="13">
-        <v>43975.0</v>
+        <v>43975</v>
       </c>
       <c r="B48" s="11">
         <v>0.16666666666666666</v>
@@ -1234,12 +1259,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="13">
-        <v>43975.0</v>
+        <v>43975</v>
       </c>
       <c r="B49" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>16</v>
@@ -1248,9 +1273,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="13">
-        <v>43976.0</v>
+        <v>43976</v>
       </c>
       <c r="B50" s="11">
         <v>0.125</v>
@@ -1262,12 +1287,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="13">
-        <v>43976.0</v>
+        <v>43976</v>
       </c>
       <c r="B51" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>11</v>
@@ -1276,9 +1301,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="13">
-        <v>43977.0</v>
+        <v>43977</v>
       </c>
       <c r="B52" s="11">
         <v>0.125</v>
@@ -1290,12 +1315,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="13">
-        <v>43978.0</v>
+        <v>43978</v>
       </c>
       <c r="B53" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>11</v>
@@ -1304,12 +1329,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="13">
-        <v>43978.0</v>
+        <v>43978</v>
       </c>
       <c r="B54" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>11</v>
@@ -1318,12 +1343,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="13">
-        <v>43978.0</v>
+        <v>43978</v>
       </c>
       <c r="B55" s="11">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>16</v>
@@ -1332,12 +1357,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="13">
-        <v>43979.0</v>
+        <v>43979</v>
       </c>
       <c r="B56" s="11">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>16</v>
@@ -1346,38 +1371,147 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="13">
+        <v>43984</v>
+      </c>
+      <c r="B57" s="11">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="13">
+        <v>43985</v>
+      </c>
+      <c r="B58" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="13">
+        <v>43986</v>
+      </c>
+      <c r="B59" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="13">
+        <v>43992</v>
+      </c>
+      <c r="B60" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="13">
+        <v>43995</v>
+      </c>
+      <c r="B61" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="13">
+        <v>43996</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="13">
+        <v>43998</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="13">
+        <v>43999</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="13">
+        <v>44000</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -2303,35 +2437,39 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C58">
-      <formula1>'Tätigkeiten'!$B$2:$B$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.7875" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.7875"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C65</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.44"/>
-    <col customWidth="1" min="2" max="2" width="34.67"/>
-    <col customWidth="1" min="3" max="6" width="10.44"/>
-    <col customWidth="1" min="7" max="26" width="8.56"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" customWidth="1"/>
+    <col min="3" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2339,98 +2477,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3416,9 +3554,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.7875" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>